--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H2">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I2">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J2">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N2">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q2">
-        <v>8.612416057175887</v>
+        <v>13.072863297376</v>
       </c>
       <c r="R2">
-        <v>8.612416057175887</v>
+        <v>117.655769676384</v>
       </c>
       <c r="S2">
-        <v>0.002561760491215222</v>
+        <v>0.002950384072470817</v>
       </c>
       <c r="T2">
-        <v>0.002561760491215222</v>
+        <v>0.002950384072470817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H3">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I3">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J3">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N3">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q3">
-        <v>153.9431928427228</v>
+        <v>200.1229378155737</v>
       </c>
       <c r="R3">
-        <v>153.9431928427228</v>
+        <v>1801.106440340163</v>
       </c>
       <c r="S3">
-        <v>0.04579035507549904</v>
+        <v>0.04516527977353286</v>
       </c>
       <c r="T3">
-        <v>0.04579035507549904</v>
+        <v>0.04516527977353286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H4">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I4">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J4">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N4">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q4">
-        <v>388.4390381249711</v>
+        <v>570.6077038186963</v>
       </c>
       <c r="R4">
-        <v>388.4390381249711</v>
+        <v>5135.469334368267</v>
       </c>
       <c r="S4">
-        <v>0.1155410716932428</v>
+        <v>0.1287791237986665</v>
       </c>
       <c r="T4">
-        <v>0.1155410716932428</v>
+        <v>0.1287791237986665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H5">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I5">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J5">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N5">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q5">
-        <v>429.2518176181217</v>
+        <v>563.5386188286237</v>
       </c>
       <c r="R5">
-        <v>429.2518176181217</v>
+        <v>5071.847569457615</v>
       </c>
       <c r="S5">
-        <v>0.1276808203245364</v>
+        <v>0.1271837184702991</v>
       </c>
       <c r="T5">
-        <v>0.1276808203245364</v>
+        <v>0.127183718470299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H6">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I6">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J6">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N6">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q6">
-        <v>676.332438434682</v>
+        <v>910.9872214175517</v>
       </c>
       <c r="R6">
-        <v>676.332438434682</v>
+        <v>8198.884992757967</v>
       </c>
       <c r="S6">
-        <v>0.2011748745307784</v>
+        <v>0.2055985844229153</v>
       </c>
       <c r="T6">
-        <v>0.2011748745307784</v>
+        <v>0.2055985844229153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.344053795335331</v>
+        <v>10.739123</v>
       </c>
       <c r="H7">
-        <v>8.344053795335331</v>
+        <v>32.21736900000001</v>
       </c>
       <c r="I7">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="J7">
-        <v>0.5459315147398999</v>
+        <v>0.5770918286832329</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N7">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q7">
-        <v>178.7953872931956</v>
+        <v>298.7081120135273</v>
       </c>
       <c r="R7">
-        <v>178.7953872931956</v>
+        <v>2688.373008121746</v>
       </c>
       <c r="S7">
-        <v>0.05318263262462804</v>
+        <v>0.06741473814534847</v>
       </c>
       <c r="T7">
-        <v>0.05318263262462804</v>
+        <v>0.06741473814534847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>6.94001310692203</v>
+        <v>0.09132666666666667</v>
       </c>
       <c r="H8">
-        <v>6.94001310692203</v>
+        <v>0.27398</v>
       </c>
       <c r="I8">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="J8">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N8">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q8">
-        <v>7.163218476908724</v>
+        <v>0.1111730472533333</v>
       </c>
       <c r="R8">
-        <v>7.163218476908724</v>
+        <v>1.00055742528</v>
       </c>
       <c r="S8">
-        <v>0.002130697119398686</v>
+        <v>2.509038612605376E-05</v>
       </c>
       <c r="T8">
-        <v>0.002130697119398686</v>
+        <v>2.509038612605376E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>6.94001310692203</v>
+        <v>0.09132666666666667</v>
       </c>
       <c r="H9">
-        <v>6.94001310692203</v>
+        <v>0.27398</v>
       </c>
       <c r="I9">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="J9">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N9">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q9">
-        <v>128.0394161225547</v>
+        <v>1.701867166828889</v>
       </c>
       <c r="R9">
-        <v>128.0394161225547</v>
+        <v>15.31680450146</v>
       </c>
       <c r="S9">
-        <v>0.03808528470564659</v>
+        <v>0.0003840904374392748</v>
       </c>
       <c r="T9">
-        <v>0.03808528470564659</v>
+        <v>0.0003840904374392748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1036,49 +1036,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>6.94001310692203</v>
+        <v>0.09132666666666667</v>
       </c>
       <c r="H10">
-        <v>6.94001310692203</v>
+        <v>0.27398</v>
       </c>
       <c r="I10">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="J10">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N10">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q10">
-        <v>323.0770177122459</v>
+        <v>4.852509796571111</v>
       </c>
       <c r="R10">
-        <v>323.0770177122459</v>
+        <v>43.67258816914</v>
       </c>
       <c r="S10">
-        <v>0.09609915894684112</v>
+        <v>0.001095151635081022</v>
       </c>
       <c r="T10">
-        <v>0.09609915894684112</v>
+        <v>0.001095151635081022</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,49 +1098,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>6.94001310692203</v>
+        <v>0.09132666666666667</v>
       </c>
       <c r="H11">
-        <v>6.94001310692203</v>
+        <v>0.27398</v>
       </c>
       <c r="I11">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="J11">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N11">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q11">
-        <v>357.0222955783506</v>
+        <v>4.792393531162222</v>
       </c>
       <c r="R11">
-        <v>357.0222955783506</v>
+        <v>43.13154178046</v>
       </c>
       <c r="S11">
-        <v>0.1061961713442223</v>
+        <v>0.001081584135144385</v>
       </c>
       <c r="T11">
-        <v>0.1061961713442223</v>
+        <v>0.001081584135144385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.94001310692203</v>
+        <v>0.09132666666666667</v>
       </c>
       <c r="H12">
-        <v>6.94001310692203</v>
+        <v>0.27398</v>
       </c>
       <c r="I12">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="J12">
-        <v>0.4540684852601001</v>
+        <v>0.004907651497632602</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N12">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q12">
-        <v>562.5270524978198</v>
+        <v>7.747134128922222</v>
       </c>
       <c r="R12">
-        <v>562.5270524978198</v>
+        <v>69.72420716030001</v>
       </c>
       <c r="S12">
-        <v>0.1673234976993444</v>
+        <v>0.001748432659420151</v>
       </c>
       <c r="T12">
-        <v>0.1673234976993444</v>
+        <v>0.001748432659420151</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09132666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.27398</v>
+      </c>
+      <c r="I13">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="J13">
+        <v>0.004907651497632602</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.81494466666667</v>
+      </c>
+      <c r="N13">
+        <v>83.444834</v>
+      </c>
+      <c r="O13">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="P13">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="Q13">
+        <v>2.540246179924444</v>
+      </c>
+      <c r="R13">
+        <v>22.86221561932</v>
+      </c>
+      <c r="S13">
+        <v>0.0005733022444217147</v>
+      </c>
+      <c r="T13">
+        <v>0.0005733022444217147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H14">
+        <v>23.335761</v>
+      </c>
+      <c r="I14">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J14">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.217312</v>
+      </c>
+      <c r="N14">
+        <v>3.651936</v>
+      </c>
+      <c r="O14">
+        <v>0.005112503636037949</v>
+      </c>
+      <c r="P14">
+        <v>0.005112503636037948</v>
+      </c>
+      <c r="Q14">
+        <v>9.468967298143998</v>
+      </c>
+      <c r="R14">
+        <v>85.22070568329599</v>
+      </c>
+      <c r="S14">
+        <v>0.002137029177441077</v>
+      </c>
+      <c r="T14">
+        <v>0.002137029177441077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.94001310692203</v>
-      </c>
-      <c r="H13">
-        <v>6.94001310692203</v>
-      </c>
-      <c r="I13">
-        <v>0.4540684852601001</v>
-      </c>
-      <c r="J13">
-        <v>0.4540684852601001</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>21.4278804617906</v>
-      </c>
-      <c r="N13">
-        <v>21.4278804617906</v>
-      </c>
-      <c r="O13">
-        <v>0.09741630806927502</v>
-      </c>
-      <c r="P13">
-        <v>0.09741630806927502</v>
-      </c>
-      <c r="Q13">
-        <v>148.7097712583852</v>
-      </c>
-      <c r="R13">
-        <v>148.7097712583852</v>
-      </c>
-      <c r="S13">
-        <v>0.04423367544464697</v>
-      </c>
-      <c r="T13">
-        <v>0.04423367544464697</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H15">
+        <v>23.335761</v>
+      </c>
+      <c r="I15">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J15">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.63494233333333</v>
+      </c>
+      <c r="N15">
+        <v>55.904827</v>
+      </c>
+      <c r="O15">
+        <v>0.07826359260117714</v>
+      </c>
+      <c r="P15">
+        <v>0.07826359260117714</v>
+      </c>
+      <c r="Q15">
+        <v>144.9535201798163</v>
+      </c>
+      <c r="R15">
+        <v>1304.581681618347</v>
+      </c>
+      <c r="S15">
+        <v>0.03271422239020501</v>
+      </c>
+      <c r="T15">
+        <v>0.03271422239020501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H16">
+        <v>23.335761</v>
+      </c>
+      <c r="I16">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J16">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.13354766666667</v>
+      </c>
+      <c r="N16">
+        <v>159.400643</v>
+      </c>
+      <c r="O16">
+        <v>0.2231518753133371</v>
+      </c>
+      <c r="P16">
+        <v>0.2231518753133371</v>
+      </c>
+      <c r="Q16">
+        <v>413.3039231438136</v>
+      </c>
+      <c r="R16">
+        <v>3719.735308294323</v>
+      </c>
+      <c r="S16">
+        <v>0.09327759987958956</v>
+      </c>
+      <c r="T16">
+        <v>0.09327759987958956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H17">
+        <v>23.335761</v>
+      </c>
+      <c r="I17">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J17">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>52.47529233333334</v>
+      </c>
+      <c r="N17">
+        <v>157.425877</v>
+      </c>
+      <c r="O17">
+        <v>0.2203873147199083</v>
+      </c>
+      <c r="P17">
+        <v>0.2203873147199082</v>
+      </c>
+      <c r="Q17">
+        <v>408.1836267652663</v>
+      </c>
+      <c r="R17">
+        <v>3673.652640887397</v>
+      </c>
+      <c r="S17">
+        <v>0.09212201211446483</v>
+      </c>
+      <c r="T17">
+        <v>0.09212201211446482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H18">
+        <v>23.335761</v>
+      </c>
+      <c r="I18">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J18">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>84.82882833333333</v>
+      </c>
+      <c r="N18">
+        <v>254.486485</v>
+      </c>
+      <c r="O18">
+        <v>0.3562666705782951</v>
+      </c>
+      <c r="P18">
+        <v>0.3562666705782951</v>
+      </c>
+      <c r="Q18">
+        <v>659.8484212988983</v>
+      </c>
+      <c r="R18">
+        <v>5938.635791690085</v>
+      </c>
+      <c r="S18">
+        <v>0.1489196534959597</v>
+      </c>
+      <c r="T18">
+        <v>0.1489196534959597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.778586999999999</v>
+      </c>
+      <c r="H19">
+        <v>23.335761</v>
+      </c>
+      <c r="I19">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="J19">
+        <v>0.4180005198191344</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>27.81494466666667</v>
+      </c>
+      <c r="N19">
+        <v>83.444834</v>
+      </c>
+      <c r="O19">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="P19">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="Q19">
+        <v>216.3609669898526</v>
+      </c>
+      <c r="R19">
+        <v>1947.248702908674</v>
+      </c>
+      <c r="S19">
+        <v>0.04883000276147425</v>
+      </c>
+      <c r="T19">
+        <v>0.04883000276147425</v>
       </c>
     </row>
   </sheetData>
